--- a/利润表/300922.xlsx
+++ b/利润表/300922.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,52 +729,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-22 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>33100681.08</v>
+        <v>39055812.29</v>
       </c>
       <c r="P2" t="n">
-        <v>140844211.09</v>
+        <v>169579892.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>102863290.34</v>
+        <v>124337606.5</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.0219975236</v>
+        <v>23.4852263003</v>
       </c>
       <c r="S2" t="n">
-        <v>87373452.45999999</v>
+        <v>107477807.38</v>
       </c>
       <c r="T2" t="n">
-        <v>87373452.45999999</v>
+        <v>107477807.38</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8651047515</v>
+        <v>24.996617495</v>
       </c>
       <c r="V2" t="n">
-        <v>1767655.78</v>
+        <v>1486637.68</v>
       </c>
       <c r="W2" t="n">
-        <v>6855753.2</v>
+        <v>6595069.59</v>
       </c>
       <c r="X2" t="n">
-        <v>-659261.5</v>
+        <v>-393563.88</v>
       </c>
       <c r="Y2" t="n">
-        <v>38942437.29</v>
+        <v>45954759.22</v>
       </c>
       <c r="Z2" t="n">
-        <v>38941977.73</v>
+        <v>45954733.28</v>
       </c>
       <c r="AA2" t="n">
-        <v>5841296.65</v>
+        <v>6898920.99</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>829419.99</v>
+        <v>825137.16</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-2.6756261108</v>
+        <v>22.7768406497</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.298089029208</v>
+        <v>25.970437614312</v>
       </c>
       <c r="AR2" t="n">
-        <v>-3.501366301289</v>
+        <v>22.737074754653</v>
       </c>
       <c r="AS2" t="n">
-        <v>31320181.44</v>
+        <v>37791846.04</v>
       </c>
       <c r="AT2" t="n">
-        <v>-5.118941612696</v>
+        <v>23.19679323622</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300922.xlsx
+++ b/利润表/300922.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>39055812.29</v>
+        <v>52552399.44</v>
       </c>
       <c r="P2" t="n">
-        <v>169579892.56</v>
+        <v>212750230.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>124337606.5</v>
+        <v>154372124.18</v>
       </c>
       <c r="R2" t="n">
-        <v>23.4852263003</v>
+        <v>-0.4959141338</v>
       </c>
       <c r="S2" t="n">
-        <v>107477807.38</v>
+        <v>131129079.18</v>
       </c>
       <c r="T2" t="n">
-        <v>107477807.38</v>
+        <v>131129079.18</v>
       </c>
       <c r="U2" t="n">
-        <v>24.996617495</v>
+        <v>-0.7591002893</v>
       </c>
       <c r="V2" t="n">
-        <v>1486637.68</v>
+        <v>2598574.24</v>
       </c>
       <c r="W2" t="n">
-        <v>6595069.59</v>
+        <v>9923438.08</v>
       </c>
       <c r="X2" t="n">
-        <v>-393563.88</v>
+        <v>-933442.34</v>
       </c>
       <c r="Y2" t="n">
-        <v>45954759.22</v>
+        <v>60648277.76</v>
       </c>
       <c r="Z2" t="n">
-        <v>45954733.28</v>
+        <v>60647538.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>6898920.99</v>
+        <v>8095138.76</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>825137.16</v>
+        <v>1208307.07</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>22.7768406497</v>
+        <v>-4.3118437351</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25.970437614312</v>
+        <v>-10.719934104288</v>
       </c>
       <c r="AR2" t="n">
-        <v>22.737074754653</v>
+        <v>-14.158800802414</v>
       </c>
       <c r="AS2" t="n">
-        <v>37791846.04</v>
+        <v>50254322.97</v>
       </c>
       <c r="AT2" t="n">
-        <v>23.19679323622</v>
+        <v>-11.40106912436</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300922.xlsx
+++ b/利润表/300922.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>52552399.44</v>
+        <v>7534365.99</v>
       </c>
       <c r="P2" t="n">
-        <v>212750230.69</v>
+        <v>29278553.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>154372124.18</v>
+        <v>23643696.46</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.4959141338</v>
+        <v>-28.6593858958</v>
       </c>
       <c r="S2" t="n">
-        <v>131129079.18</v>
+        <v>19448142.08</v>
       </c>
       <c r="T2" t="n">
-        <v>131129079.18</v>
+        <v>19448142.08</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.7591002893</v>
+        <v>-23.0346406466</v>
       </c>
       <c r="V2" t="n">
-        <v>2598574.24</v>
+        <v>474404.4</v>
       </c>
       <c r="W2" t="n">
-        <v>9923438.08</v>
+        <v>2040369.19</v>
       </c>
       <c r="X2" t="n">
-        <v>-933442.34</v>
+        <v>-455105.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>60648277.76</v>
+        <v>8866361.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>60647538.2</v>
+        <v>8866417.93</v>
       </c>
       <c r="AA2" t="n">
-        <v>8095138.76</v>
+        <v>1332051.94</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1208307.07</v>
+        <v>245627.13</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-4.3118437351</v>
+        <v>-17.5721818637</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-10.719934104288</v>
+        <v>201.772376128175</v>
       </c>
       <c r="AR2" t="n">
-        <v>-14.158800802414</v>
+        <v>201.690629158218</v>
       </c>
       <c r="AS2" t="n">
-        <v>50254322.97</v>
+        <v>6185665.99</v>
       </c>
       <c r="AT2" t="n">
-        <v>-11.40106912436</v>
+        <v>205.989013195771</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300922.xlsx
+++ b/利润表/300922.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>7534365.99</v>
+        <v>61220486.12</v>
       </c>
       <c r="P2" t="n">
-        <v>29278553.71</v>
+        <v>222337057.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>23643696.46</v>
+        <v>155141492.77</v>
       </c>
       <c r="R2" t="n">
-        <v>-28.6593858958</v>
+        <v>24.7743921868</v>
       </c>
       <c r="S2" t="n">
-        <v>19448142.08</v>
+        <v>132132094.29</v>
       </c>
       <c r="T2" t="n">
-        <v>19448142.08</v>
+        <v>132132094.29</v>
       </c>
       <c r="U2" t="n">
-        <v>-23.0346406466</v>
+        <v>22.9389559677</v>
       </c>
       <c r="V2" t="n">
-        <v>474404.4</v>
+        <v>2637277.48</v>
       </c>
       <c r="W2" t="n">
-        <v>2040369.19</v>
+        <v>9390354.310000001</v>
       </c>
       <c r="X2" t="n">
-        <v>-455105.8</v>
+        <v>-877509.37</v>
       </c>
       <c r="Y2" t="n">
-        <v>8866361.75</v>
+        <v>67930368.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>8866417.93</v>
+        <v>67691196.26000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>1332051.94</v>
+        <v>6470710.14</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>245627.13</v>
+        <v>1259231.88</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-17.5721818637</v>
+        <v>31.1105071501</v>
       </c>
       <c r="AQ2" t="n">
-        <v>201.772376128175</v>
+        <v>47.820094486397</v>
       </c>
       <c r="AR2" t="n">
-        <v>201.690629158218</v>
+        <v>56.751281129224</v>
       </c>
       <c r="AS2" t="n">
-        <v>6185665.99</v>
+        <v>56721113.34</v>
       </c>
       <c r="AT2" t="n">
-        <v>205.989013195771</v>
+        <v>50.088196115016</v>
       </c>
     </row>
   </sheetData>
